--- a/Cluster-Tagebuch.xlsx
+++ b/Cluster-Tagebuch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Desktop\Publikationen - Cluster-Tagebuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E2BD1-D6C3-483E-AA0F-0D03267CED60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C9BB83-6803-4309-8CC9-6AFA3E5AF3B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6470" yWindow="2690" windowWidth="30700" windowHeight="17810" xr2:uid="{C9BBC113-26C1-4CCD-A003-C18C750066A2}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="17280" windowHeight="8964" xr2:uid="{C9BBC113-26C1-4CCD-A003-C18C750066A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tagebuch" sheetId="1" r:id="rId1"/>
@@ -904,20 +904,23 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="3.6328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="3.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -939,7 +942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -977,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44105</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="J4" s="3" t="s">
         <v>22</v>
@@ -1015,7 +1018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44106</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44107</v>
       </c>
@@ -1071,7 +1074,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44109</v>
       </c>
@@ -1089,7 +1092,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44109</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="J9" s="3" t="s">
         <v>33</v>
@@ -1130,53 +1133,53 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1205,18 +1208,18 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1285,167 +1288,167 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.90625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>70</v>
       </c>
